--- a/pond2/generator/gene_part.xlsx
+++ b/pond2/generator/gene_part.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\pond2\pond2\generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\pond2\pond2\pond2\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17194" windowHeight="6190"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,26 @@
   </si>
   <si>
     <t>TN\\L2_AGC_F7XTHKCDEVCLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR\\FM_DEL_WEDGE40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR\\FM_DEL_CROWN40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown_40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,18 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -422,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -436,7 +456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -448,6 +468,34 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1580</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1580</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pond2/generator/gene_part.xlsx
+++ b/pond2/generator/gene_part.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\pond2\pond2\pond2\generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\pond2\pond2\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="17190" windowHeight="6195"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thick_ct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,198 @@
   <si>
     <t>crown_40</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F1WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F2WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F3WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F4WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F5WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F6WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>shift_f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift_f3</t>
+  </si>
+  <si>
+    <t>shift_f4</t>
+  </si>
+  <si>
+    <t>shift_f5</t>
+  </si>
+  <si>
+    <t>shift_f6</t>
+  </si>
+  <si>
+    <t>shift_f7</t>
+  </si>
+  <si>
+    <t>shift_f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F1WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F3WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F4WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F5WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F6WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F2WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick_clg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\FMX_MFT_PROFB_CROWN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\FMX_MFT_PROFB_WEDGE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_flt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_mfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_FA_FLTWDEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XWIDDEVMFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7XWIDDEVFLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7XWIDDEVMFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_ro1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_ro2</t>
+  </si>
+  <si>
+    <t>flt_ro3</t>
+  </si>
+  <si>
+    <t>flt_ro4</t>
+  </si>
+  <si>
+    <t>flt_ro5</t>
+  </si>
+  <si>
+    <t>FLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO2</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO3</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO4</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO5</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO2</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO3</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO4</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO5</t>
   </si>
 </sst>
 </file>
@@ -108,12 +296,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,11 +354,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,23 +659,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -443,59 +686,479 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1580</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1580</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2250</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1580</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1580</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2250</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2250</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>1580</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>2250</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>2250</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>2250</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>2250</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>2250</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/pond2/generator/gene_part.xlsx
+++ b/pond2/generator/gene_part.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="17190" windowHeight="6195"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,224 +46,322 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TN\\L2_AGC_F7XTHKCDEVCLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR\\FM_DEL_WEDGE40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR\\FM_DEL_CROWN40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F1WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F2WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F3WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F4WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F5WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F6WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>shift_f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift_f3</t>
+  </si>
+  <si>
+    <t>shift_f4</t>
+  </si>
+  <si>
+    <t>shift_f5</t>
+  </si>
+  <si>
+    <t>shift_f6</t>
+  </si>
+  <si>
+    <t>shift_f7</t>
+  </si>
+  <si>
+    <t>shift_f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F1WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F3WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F4WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F5WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F6WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7WRSTPOSFBK</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F2WRSTPOSFBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\FMX_MFT_PROFB_CROWN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\FMX_MFT_PROFB_WEDGE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_mfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_FA_FLTWDEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XWIDDEVMFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7XWIDDEVFLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_ro1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_ro2</t>
+  </si>
+  <si>
+    <t>flt_ro3</t>
+  </si>
+  <si>
+    <t>flt_ro4</t>
+  </si>
+  <si>
+    <t>flt_ro5</t>
+  </si>
+  <si>
+    <t>FLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO2</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO3</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO4</t>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLTRO5</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO2</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO3</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO4</t>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTRO5</t>
+  </si>
+  <si>
+    <t>looper_angle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looper_angle2</t>
+  </si>
+  <si>
+    <t>looper_angle3</t>
+  </si>
+  <si>
+    <t>looper_angle4</t>
+  </si>
+  <si>
+    <t>looper_angle5</t>
+  </si>
+  <si>
+    <t>looper_angle6</t>
+  </si>
+  <si>
+    <t>TN\\L_F4LP_ANGFB</t>
+  </si>
+  <si>
+    <t>TN\\L_F1LP_ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_F2LP_ANGFB</t>
+  </si>
+  <si>
+    <t>TN\\L_F3LP_ANGFB</t>
+  </si>
+  <si>
+    <t>TN\\L_F5LP_ANGFB</t>
+  </si>
+  <si>
+    <t>TN\\L_F6LP_ANGFB</t>
+  </si>
+  <si>
+    <t>TN\\L2_F4H_L4ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_F1H_L1ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_F2H_L2ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_F3H_L3ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_F5H_L5ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_F6H_L6ANGFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looper_angle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looper_angle4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_R2_R2DT1TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_R2_R2DTTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick_clg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7XWIDDEVMFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_flt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick_clg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TN\\L_AG2_F7XTHKCDEVCLG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TN\\L2_AGC_F7XTHKCDEVCLG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR\\FM_DEL_WEDGE40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR\\FM_DEL_CROWN40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F1WRSTPOSFBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F2WRSTPOSFBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F3WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F4WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F5WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F6WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>shift_f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift_f3</t>
-  </si>
-  <si>
-    <t>shift_f4</t>
-  </si>
-  <si>
-    <t>shift_f5</t>
-  </si>
-  <si>
-    <t>shift_f6</t>
-  </si>
-  <si>
-    <t>shift_f7</t>
-  </si>
-  <si>
-    <t>shift_f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_CF_F1WRSTPOSFBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_CF_F3WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F4WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F5WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F6WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7WRSTPOSFBK</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F2WRSTPOSFBK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thick_clg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\FMX_MFT_PROFB_CROWN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\FMX_MFT_PROFB_WEDGE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>width_flt</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width_mfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_FA_FLTWDEV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XWIDDEVMFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F7XWIDDEVFLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F7XWIDDEVMFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flt_ro1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flt_ro2</t>
-  </si>
-  <si>
-    <t>flt_ro3</t>
-  </si>
-  <si>
-    <t>flt_ro4</t>
-  </si>
-  <si>
-    <t>flt_ro5</t>
-  </si>
-  <si>
-    <t>FLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7XFLTRO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7XFLTRO2</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7XFLTRO3</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7XFLTRO4</t>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7XFLTRO5</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTRO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTRO2</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTRO3</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTRO4</t>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTRO5</t>
   </si>
 </sst>
 </file>
@@ -296,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,12 +410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,9 +466,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,15 +748,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -690,13 +779,13 @@
         <v>1580</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -704,13 +793,13 @@
         <v>1580</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -718,13 +807,13 @@
         <v>1580</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -732,13 +821,13 @@
         <v>2250</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -746,13 +835,13 @@
         <v>2250</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -760,13 +849,13 @@
         <v>2250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -774,13 +863,13 @@
         <v>1580</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -788,13 +877,13 @@
         <v>1580</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -802,13 +891,13 @@
         <v>2250</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -816,13 +905,13 @@
         <v>2250</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -830,13 +919,13 @@
         <v>1580</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -844,13 +933,13 @@
         <v>1580</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -858,13 +947,13 @@
         <v>1580</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -872,13 +961,13 @@
         <v>1580</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -886,13 +975,13 @@
         <v>1580</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -900,13 +989,13 @@
         <v>1580</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -914,251 +1003,447 @@
         <v>1580</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>1580</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>1580</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>1580</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>1580</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>1580</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>2250</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D36" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D39" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D40" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>2250</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="D41" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>2250</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>2250</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>2250</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <v>2250</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <v>2250</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>62</v>
+      <c r="C44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/pond2/generator/gene_part.xlsx
+++ b/pond2/generator/gene_part.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="17190" windowHeight="6195"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,22 @@
   </si>
   <si>
     <t>width_flt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2DW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_R2_R2XCENTOFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_R2_R2XCENTOFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_center_ofs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,6 +1462,34 @@
         <v>86</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pond2/generator/gene_part.xlsx
+++ b/pond2/generator/gene_part.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="17190" windowHeight="6195"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,10 @@
   </si>
   <si>
     <t>L2\\FMX_MFT_PROFB_CROWN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge_25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,7 +961,7 @@
         <v>1580</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>

--- a/pond2/generator/gene_part.xlsx
+++ b/pond2/generator/gene_part.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="17190" windowHeight="6195"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="17190" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="132">
   <si>
     <t>DCAFILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,58 @@
   </si>
   <si>
     <t>wedge_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FM_F7_SFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_FM_F7_SFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_ROT_CT1TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_FDT1TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_ROT_CTTMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_FA_FDTTEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +578,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -541,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +622,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1740,6 +1801,90 @@
         <v>91</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>1580</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>2250</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>1580</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>2250</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>1580</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>2250</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
